--- a/完成データ/企業別総合計2020-8-27.xlsx
+++ b/完成データ/企業別総合計2020-8-27.xlsx
@@ -533,72 +533,72 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
+          <t>売り</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
           <t>買い</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>差引</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>売り</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>買い</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>差引</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>売り</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>買い</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>差引</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>売り</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>買い</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>差引</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>売り</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>買い</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>差引</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>買い</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>売り</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
@@ -629,10 +629,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>289</v>
+      </c>
+      <c r="D4" t="n">
         <v>202</v>
-      </c>
-      <c r="D4" t="n">
-        <v>289</v>
       </c>
       <c r="E4" t="n">
         <v>-87</v>
@@ -641,10 +641,10 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
+        <v>265</v>
+      </c>
+      <c r="J4" t="n">
         <v>239</v>
-      </c>
-      <c r="J4" t="n">
-        <v>265</v>
       </c>
       <c r="K4" t="n">
         <v>-26</v>
@@ -666,19 +666,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>139</v>
+      </c>
+      <c r="D5" t="n">
         <v>115</v>
-      </c>
-      <c r="D5" t="n">
-        <v>139</v>
       </c>
       <c r="E5" t="n">
         <v>-24</v>
       </c>
       <c r="F5" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="G5" t="n">
         <v>134.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>140.3</v>
       </c>
       <c r="H5" t="n">
         <v>-5.800000000000011</v>
@@ -687,10 +687,10 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="M5" t="n">
         <v>249.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>279.3</v>
       </c>
       <c r="N5" t="n">
         <v>-29.80000000000001</v>
@@ -709,46 +709,46 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
+        <v>1129</v>
+      </c>
+      <c r="D6" t="n">
         <v>746</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1129</v>
       </c>
       <c r="E6" t="n">
         <v>-383</v>
       </c>
       <c r="F6" t="n">
+        <v>810.1</v>
+      </c>
+      <c r="G6" t="n">
         <v>167.7</v>
-      </c>
-      <c r="G6" t="n">
-        <v>810.1</v>
       </c>
       <c r="H6" t="n">
         <v>-642.4000000000001</v>
       </c>
       <c r="I6" t="n">
+        <v>1374</v>
+      </c>
+      <c r="J6" t="n">
         <v>754</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1374</v>
       </c>
       <c r="K6" t="n">
         <v>-620</v>
       </c>
       <c r="L6" t="n">
+        <v>1939.1</v>
+      </c>
+      <c r="M6" t="n">
         <v>913.7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1939.1</v>
       </c>
       <c r="N6" t="n">
         <v>-1025.4</v>
       </c>
       <c r="O6" t="n">
+        <v>2626.1</v>
+      </c>
+      <c r="P6" t="n">
         <v>1290.7</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2626.1</v>
       </c>
       <c r="Q6" t="n">
         <v>-1335.4</v>
@@ -764,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>1078</v>
+      </c>
+      <c r="D7" t="n">
         <v>655</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1078</v>
       </c>
       <c r="E7" t="n">
         <v>-423</v>
@@ -776,10 +776,10 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
+        <v>1366</v>
+      </c>
+      <c r="J7" t="n">
         <v>1691</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1366</v>
       </c>
       <c r="K7" t="n">
         <v>325</v>
@@ -801,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D8" t="n">
         <v>540</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2008</v>
       </c>
       <c r="E8" t="n">
         <v>-1468</v>
@@ -813,10 +813,10 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
+        <v>53</v>
+      </c>
+      <c r="J8" t="n">
         <v>100</v>
-      </c>
-      <c r="J8" t="n">
-        <v>53</v>
       </c>
       <c r="K8" t="n">
         <v>47</v>
@@ -838,46 +838,46 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
+        <v>7203</v>
+      </c>
+      <c r="D9" t="n">
         <v>6799</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7203</v>
       </c>
       <c r="E9" t="n">
         <v>-404</v>
       </c>
       <c r="F9" t="n">
+        <v>8528.800000000001</v>
+      </c>
+      <c r="G9" t="n">
         <v>8122.4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8528.800000000001</v>
       </c>
       <c r="H9" t="n">
         <v>-406.4000000000015</v>
       </c>
       <c r="I9" t="n">
+        <v>6632</v>
+      </c>
+      <c r="J9" t="n">
         <v>7194</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6632</v>
       </c>
       <c r="K9" t="n">
         <v>562</v>
       </c>
       <c r="L9" t="n">
+        <v>15731.8</v>
+      </c>
+      <c r="M9" t="n">
         <v>14921.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>15731.8</v>
       </c>
       <c r="N9" t="n">
         <v>-810.4000000000015</v>
       </c>
       <c r="O9" t="n">
+        <v>19047.8</v>
+      </c>
+      <c r="P9" t="n">
         <v>18518.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>19047.8</v>
       </c>
       <c r="Q9" t="n">
         <v>-529.4000000000015</v>
@@ -892,19 +892,19 @@
       <c r="B10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>866</v>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
+        <v>1154</v>
+      </c>
+      <c r="J10" t="n">
         <v>64</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1154</v>
       </c>
       <c r="K10" t="n">
         <v>-1090</v>
@@ -926,10 +926,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
+        <v>309</v>
+      </c>
+      <c r="D11" t="n">
         <v>495</v>
-      </c>
-      <c r="D11" t="n">
-        <v>309</v>
       </c>
       <c r="E11" t="n">
         <v>186</v>
@@ -938,10 +938,10 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
+        <v>1056</v>
+      </c>
+      <c r="J11" t="n">
         <v>1090</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1056</v>
       </c>
       <c r="K11" t="n">
         <v>34</v>
@@ -963,19 +963,19 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
+        <v>120</v>
+      </c>
+      <c r="D12" t="n">
         <v>298</v>
-      </c>
-      <c r="D12" t="n">
-        <v>120</v>
       </c>
       <c r="E12" t="n">
         <v>178</v>
       </c>
       <c r="F12" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="G12" t="n">
         <v>293.4</v>
-      </c>
-      <c r="G12" t="n">
-        <v>266.5</v>
       </c>
       <c r="H12" t="n">
         <v>26.89999999999998</v>
@@ -984,10 +984,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="M12" t="n">
         <v>591.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>386.5</v>
       </c>
       <c r="N12" t="n">
         <v>204.9</v>
@@ -1006,46 +1006,46 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
+        <v>1203</v>
+      </c>
+      <c r="D13" t="n">
         <v>782</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1203</v>
       </c>
       <c r="E13" t="n">
         <v>-421</v>
       </c>
       <c r="F13" t="n">
+        <v>1008.5</v>
+      </c>
+      <c r="G13" t="n">
         <v>947.1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1008.5</v>
       </c>
       <c r="H13" t="n">
         <v>-61.39999999999998</v>
       </c>
       <c r="I13" t="n">
+        <v>1133</v>
+      </c>
+      <c r="J13" t="n">
         <v>864</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1133</v>
       </c>
       <c r="K13" t="n">
         <v>-269</v>
       </c>
       <c r="L13" t="n">
+        <v>2211.5</v>
+      </c>
+      <c r="M13" t="n">
         <v>1729.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2211.5</v>
       </c>
       <c r="N13" t="n">
         <v>-482.4000000000001</v>
       </c>
       <c r="O13" t="n">
+        <v>2778</v>
+      </c>
+      <c r="P13" t="n">
         <v>2161.1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2778</v>
       </c>
       <c r="Q13" t="n">
         <v>-616.9000000000001</v>
@@ -1061,46 +1061,46 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
+        <v>546</v>
+      </c>
+      <c r="D14" t="n">
         <v>319</v>
-      </c>
-      <c r="D14" t="n">
-        <v>546</v>
       </c>
       <c r="E14" t="n">
         <v>-227</v>
       </c>
       <c r="F14" t="n">
+        <v>218.8</v>
+      </c>
+      <c r="G14" t="n">
         <v>251.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>218.8</v>
       </c>
       <c r="H14" t="n">
         <v>32.89999999999998</v>
       </c>
       <c r="I14" t="n">
+        <v>2503</v>
+      </c>
+      <c r="J14" t="n">
         <v>539</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2503</v>
       </c>
       <c r="K14" t="n">
         <v>-1964</v>
       </c>
       <c r="L14" t="n">
+        <v>764.8</v>
+      </c>
+      <c r="M14" t="n">
         <v>570.7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>764.8</v>
       </c>
       <c r="N14" t="n">
         <v>-194.0999999999999</v>
       </c>
       <c r="O14" t="n">
+        <v>2016.3</v>
+      </c>
+      <c r="P14" t="n">
         <v>840.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2016.3</v>
       </c>
       <c r="Q14" t="n">
         <v>-1176.1</v>
@@ -1116,37 +1116,37 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
+        <v>560</v>
+      </c>
+      <c r="D15" t="n">
         <v>280</v>
-      </c>
-      <c r="D15" t="n">
-        <v>560</v>
       </c>
       <c r="E15" t="n">
         <v>-280</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
         <v>172.2</v>
       </c>
-      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
+        <v>581</v>
+      </c>
+      <c r="J15" t="n">
         <v>218</v>
-      </c>
-      <c r="J15" t="n">
-        <v>581</v>
       </c>
       <c r="K15" t="n">
         <v>-363</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>452.2</v>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="n">
         <v>561.2</v>
       </c>
-      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1159,46 +1159,46 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="n">
         <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6</v>
       </c>
       <c r="E16" t="n">
         <v>-2</v>
       </c>
       <c r="F16" t="n">
+        <v>386</v>
+      </c>
+      <c r="G16" t="n">
         <v>394.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>386</v>
       </c>
       <c r="H16" t="n">
         <v>8.5</v>
       </c>
       <c r="I16" t="n">
+        <v>174</v>
+      </c>
+      <c r="J16" t="n">
         <v>199</v>
-      </c>
-      <c r="J16" t="n">
-        <v>174</v>
       </c>
       <c r="K16" t="n">
         <v>25</v>
       </c>
       <c r="L16" t="n">
+        <v>392</v>
+      </c>
+      <c r="M16" t="n">
         <v>398.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>392</v>
       </c>
       <c r="N16" t="n">
         <v>6.5</v>
       </c>
       <c r="O16" t="n">
+        <v>479</v>
+      </c>
+      <c r="P16" t="n">
         <v>498</v>
-      </c>
-      <c r="P16" t="n">
-        <v>479</v>
       </c>
       <c r="Q16" t="n">
         <v>19</v>
@@ -1214,46 +1214,46 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
+        <v>396</v>
+      </c>
+      <c r="D17" t="n">
         <v>428</v>
-      </c>
-      <c r="D17" t="n">
-        <v>396</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="G17" t="n">
         <v>342.8</v>
-      </c>
-      <c r="G17" t="n">
-        <v>388.8</v>
       </c>
       <c r="H17" t="n">
         <v>-46</v>
       </c>
       <c r="I17" t="n">
+        <v>92</v>
+      </c>
+      <c r="J17" t="n">
         <v>178</v>
-      </c>
-      <c r="J17" t="n">
-        <v>92</v>
       </c>
       <c r="K17" t="n">
         <v>86</v>
       </c>
       <c r="L17" t="n">
+        <v>784.8</v>
+      </c>
+      <c r="M17" t="n">
         <v>770.8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>784.8</v>
       </c>
       <c r="N17" t="n">
         <v>-14</v>
       </c>
       <c r="O17" t="n">
+        <v>830.8</v>
+      </c>
+      <c r="P17" t="n">
         <v>859.8</v>
-      </c>
-      <c r="P17" t="n">
-        <v>830.8</v>
       </c>
       <c r="Q17" t="n">
         <v>29</v>
@@ -1269,19 +1269,19 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
+        <v>608</v>
+      </c>
+      <c r="D18" t="n">
         <v>629</v>
-      </c>
-      <c r="D18" t="n">
-        <v>608</v>
       </c>
       <c r="E18" t="n">
         <v>21</v>
       </c>
       <c r="F18" t="n">
+        <v>1483.1</v>
+      </c>
+      <c r="G18" t="n">
         <v>1629.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1483.1</v>
       </c>
       <c r="H18" t="n">
         <v>146.1000000000001</v>
@@ -1290,10 +1290,10 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
+        <v>2091.1</v>
+      </c>
+      <c r="M18" t="n">
         <v>2258.2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2091.1</v>
       </c>
       <c r="N18" t="n">
         <v>167.0999999999999</v>
@@ -1312,19 +1312,19 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
+        <v>474</v>
+      </c>
+      <c r="D19" t="n">
         <v>518</v>
-      </c>
-      <c r="D19" t="n">
-        <v>474</v>
       </c>
       <c r="E19" t="n">
         <v>44</v>
       </c>
       <c r="F19" t="n">
+        <v>1204.9</v>
+      </c>
+      <c r="G19" t="n">
         <v>1389.3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1204.9</v>
       </c>
       <c r="H19" t="n">
         <v>184.4000000000001</v>
@@ -1333,10 +1333,10 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
+        <v>1678.9</v>
+      </c>
+      <c r="M19" t="n">
         <v>1907.3</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1678.9</v>
       </c>
       <c r="N19" t="n">
         <v>228.4000000000001</v>
@@ -1355,46 +1355,46 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
+        <v>465</v>
+      </c>
+      <c r="D20" t="n">
         <v>420</v>
-      </c>
-      <c r="D20" t="n">
-        <v>465</v>
       </c>
       <c r="E20" t="n">
         <v>-45</v>
       </c>
       <c r="F20" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="G20" t="n">
         <v>263.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>258.3</v>
       </c>
       <c r="H20" t="n">
         <v>5.199999999999989</v>
       </c>
       <c r="I20" t="n">
+        <v>657</v>
+      </c>
+      <c r="J20" t="n">
         <v>621</v>
-      </c>
-      <c r="J20" t="n">
-        <v>657</v>
       </c>
       <c r="K20" t="n">
         <v>-36</v>
       </c>
       <c r="L20" t="n">
+        <v>723.3</v>
+      </c>
+      <c r="M20" t="n">
         <v>683.5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>723.3</v>
       </c>
       <c r="N20" t="n">
         <v>-39.79999999999995</v>
       </c>
       <c r="O20" t="n">
+        <v>1051.8</v>
+      </c>
+      <c r="P20" t="n">
         <v>994</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1051.8</v>
       </c>
       <c r="Q20" t="n">
         <v>-57.79999999999995</v>
@@ -1410,46 +1410,46 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
+        <v>10519</v>
+      </c>
+      <c r="D21" t="n">
         <v>10247</v>
-      </c>
-      <c r="D21" t="n">
-        <v>10519</v>
       </c>
       <c r="E21" t="n">
         <v>-272</v>
       </c>
       <c r="F21" t="n">
+        <v>15118.2</v>
+      </c>
+      <c r="G21" t="n">
         <v>14663.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>15118.2</v>
       </c>
       <c r="H21" t="n">
         <v>-454.6999999999989</v>
       </c>
       <c r="I21" t="n">
+        <v>9122</v>
+      </c>
+      <c r="J21" t="n">
         <v>9367</v>
-      </c>
-      <c r="J21" t="n">
-        <v>9122</v>
       </c>
       <c r="K21" t="n">
         <v>245</v>
       </c>
       <c r="L21" t="n">
+        <v>25637.2</v>
+      </c>
+      <c r="M21" t="n">
         <v>24910.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>25637.2</v>
       </c>
       <c r="N21" t="n">
         <v>-726.6999999999971</v>
       </c>
       <c r="O21" t="n">
+        <v>30198.2</v>
+      </c>
+      <c r="P21" t="n">
         <v>29594</v>
-      </c>
-      <c r="P21" t="n">
-        <v>30198.2</v>
       </c>
       <c r="Q21" t="n">
         <v>-604.1999999999971</v>
@@ -1465,41 +1465,41 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
+        <v>1254</v>
+      </c>
+      <c r="D22" t="n">
         <v>213</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1254</v>
       </c>
       <c r="E22" t="n">
         <v>-1041</v>
       </c>
       <c r="F22" t="n">
+        <v>221</v>
+      </c>
+      <c r="G22" t="n">
         <v>259.5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>221</v>
       </c>
       <c r="H22" t="n">
         <v>38.5</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>367</v>
       </c>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
+        <v>1475</v>
+      </c>
+      <c r="M22" t="n">
         <v>472.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1475</v>
       </c>
       <c r="N22" t="n">
         <v>-1002.5</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
         <v>656</v>
       </c>
-      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1512,19 +1512,19 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
+        <v>65</v>
+      </c>
+      <c r="D23" t="n">
         <v>124</v>
-      </c>
-      <c r="D23" t="n">
-        <v>65</v>
       </c>
       <c r="E23" t="n">
         <v>59</v>
       </c>
       <c r="F23" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="G23" t="n">
         <v>197.3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>152.7</v>
       </c>
       <c r="H23" t="n">
         <v>44.59999999999999</v>
@@ -1533,10 +1533,10 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="M23" t="n">
         <v>321.3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>217.7</v>
       </c>
       <c r="N23" t="n">
         <v>103.6</v>
@@ -1555,46 +1555,46 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
+        <v>321</v>
+      </c>
+      <c r="D24" t="n">
         <v>202</v>
-      </c>
-      <c r="D24" t="n">
-        <v>321</v>
       </c>
       <c r="E24" t="n">
         <v>-119</v>
       </c>
       <c r="F24" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="G24" t="n">
         <v>298.6</v>
-      </c>
-      <c r="G24" t="n">
-        <v>120.3</v>
       </c>
       <c r="H24" t="n">
         <v>178.3</v>
       </c>
       <c r="I24" t="n">
+        <v>576</v>
+      </c>
+      <c r="J24" t="n">
         <v>960</v>
-      </c>
-      <c r="J24" t="n">
-        <v>576</v>
       </c>
       <c r="K24" t="n">
         <v>384</v>
       </c>
       <c r="L24" t="n">
+        <v>441.3</v>
+      </c>
+      <c r="M24" t="n">
         <v>500.6</v>
-      </c>
-      <c r="M24" t="n">
-        <v>441.3</v>
       </c>
       <c r="N24" t="n">
         <v>59.30000000000001</v>
       </c>
       <c r="O24" t="n">
+        <v>729.3</v>
+      </c>
+      <c r="P24" t="n">
         <v>980.6</v>
-      </c>
-      <c r="P24" t="n">
-        <v>729.3</v>
       </c>
       <c r="Q24" t="n">
         <v>251.3000000000001</v>
@@ -1610,46 +1610,46 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
+        <v>1096</v>
+      </c>
+      <c r="D25" t="n">
         <v>810</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1096</v>
       </c>
       <c r="E25" t="n">
         <v>-286</v>
       </c>
       <c r="F25" t="n">
+        <v>4955</v>
+      </c>
+      <c r="G25" t="n">
         <v>2487.2</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4955</v>
       </c>
       <c r="H25" t="n">
         <v>-2467.8</v>
       </c>
       <c r="I25" t="n">
+        <v>367</v>
+      </c>
+      <c r="J25" t="n">
         <v>264</v>
-      </c>
-      <c r="J25" t="n">
-        <v>367</v>
       </c>
       <c r="K25" t="n">
         <v>-103</v>
       </c>
       <c r="L25" t="n">
+        <v>6051</v>
+      </c>
+      <c r="M25" t="n">
         <v>3297.2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>6051</v>
       </c>
       <c r="N25" t="n">
         <v>-2753.8</v>
       </c>
       <c r="O25" t="n">
+        <v>6234.5</v>
+      </c>
+      <c r="P25" t="n">
         <v>3429.2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>6234.5</v>
       </c>
       <c r="Q25" t="n">
         <v>-2805.3</v>
@@ -1677,10 +1677,10 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
+        <v>533</v>
+      </c>
+      <c r="J26" t="n">
         <v>200</v>
-      </c>
-      <c r="J26" t="n">
-        <v>533</v>
       </c>
       <c r="K26" t="n">
         <v>-333</v>
@@ -1702,19 +1702,19 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
+        <v>160</v>
+      </c>
+      <c r="D27" t="n">
         <v>244</v>
-      </c>
-      <c r="D27" t="n">
-        <v>160</v>
       </c>
       <c r="E27" t="n">
         <v>84</v>
       </c>
       <c r="F27" t="n">
+        <v>577.3</v>
+      </c>
+      <c r="G27" t="n">
         <v>662.2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>577.3</v>
       </c>
       <c r="H27" t="n">
         <v>84.90000000000009</v>
@@ -1723,10 +1723,10 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
+        <v>737.3</v>
+      </c>
+      <c r="M27" t="n">
         <v>906.2</v>
-      </c>
-      <c r="M27" t="n">
-        <v>737.3</v>
       </c>
       <c r="N27" t="n">
         <v>168.9000000000001</v>
@@ -1748,10 +1748,10 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="G28" t="n">
         <v>174.4</v>
-      </c>
-      <c r="G28" t="n">
-        <v>153.1</v>
       </c>
       <c r="H28" t="n">
         <v>21.29999999999998</v>
@@ -1778,10 +1778,10 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
         <v>0.1</v>
       </c>
-      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1806,19 +1806,19 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.9</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0.7999999999999998</v>
       </c>
       <c r="I30" t="n">
+        <v>308</v>
+      </c>
+      <c r="J30" t="n">
         <v>194</v>
-      </c>
-      <c r="J30" t="n">
-        <v>308</v>
       </c>
       <c r="K30" t="n">
         <v>-114</v>
@@ -1843,19 +1843,19 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
+        <v>176.2</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>176.2</v>
       </c>
       <c r="H31" t="n">
         <v>-176</v>
       </c>
       <c r="I31" t="n">
+        <v>114</v>
+      </c>
+      <c r="J31" t="n">
         <v>181</v>
-      </c>
-      <c r="J31" t="n">
-        <v>114</v>
       </c>
       <c r="K31" t="n">
         <v>67</v>
@@ -1880,10 +1880,10 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="G32" t="n">
         <v>212.8</v>
-      </c>
-      <c r="G32" t="n">
-        <v>213.6</v>
       </c>
       <c r="H32" t="n">
         <v>-0.7999999999999829</v>
@@ -1914,10 +1914,10 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
+        <v>168</v>
+      </c>
+      <c r="J33" t="n">
         <v>113</v>
-      </c>
-      <c r="J33" t="n">
-        <v>168</v>
       </c>
       <c r="K33" t="n">
         <v>-55</v>
@@ -1937,46 +1937,46 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>30817</v>
+      </c>
+      <c r="D34" t="n">
         <v>25073</v>
-      </c>
-      <c r="D34" t="n">
-        <v>30817</v>
       </c>
       <c r="E34" t="n">
         <v>-4878</v>
       </c>
       <c r="F34" t="n">
+        <v>36382.59999999999</v>
+      </c>
+      <c r="G34" t="n">
         <v>33066</v>
-      </c>
-      <c r="G34" t="n">
-        <v>36382.59999999999</v>
       </c>
       <c r="H34" t="n">
         <v>-3488.9</v>
       </c>
       <c r="I34" t="n">
+        <v>28228</v>
+      </c>
+      <c r="J34" t="n">
         <v>25397</v>
-      </c>
-      <c r="J34" t="n">
-        <v>28228</v>
       </c>
       <c r="K34" t="n">
         <v>-3198</v>
       </c>
       <c r="L34" t="n">
+        <v>61542.6</v>
+      </c>
+      <c r="M34" t="n">
         <v>55854.6</v>
-      </c>
-      <c r="M34" t="n">
-        <v>61542.6</v>
       </c>
       <c r="N34" t="n">
         <v>-6140.199999999997</v>
       </c>
       <c r="O34" t="n">
+        <v>65991.8</v>
+      </c>
+      <c r="P34" t="n">
         <v>60383.2</v>
-      </c>
-      <c r="P34" t="n">
-        <v>65991.8</v>
       </c>
       <c r="Q34" t="n">
         <v>-6825.799999999997</v>
